--- a/BBDD/B_UMT BBDD.xlsx
+++ b/BBDD/B_UMT BBDD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -304,6 +304,24 @@
   </si>
   <si>
     <t xml:space="preserve">Fotoféresis terapéutica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenotipificación otros antígenos de grupos sanguíneos por unidad de glóbulos rojos producido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupos menores. Tipificación o detección de otros antígenos de sistemas sanguíneos (Kell, Duffy, Kidd y otros) c/u.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subgrupo ABO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupos menores. Tipificación o detección de otros antígenos de sistemas sanguíneos (Kell, Duffy, Kidd y otros) c/u.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupos menores. Tipificación o detección de otros antígenos de sistemas sanguíneos (Kell, Duffy, Kidd y otros) c/u.
+</t>
   </si>
 </sst>
 </file>
@@ -41278,6 +41296,5886 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1162">
+      <c r="A1162" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1203" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1204" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1205" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1206" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1208" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1227" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1228" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1229" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1230" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1231" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1232" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1233" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1234" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1235" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1238" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1243" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1252" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1256" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1277" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1277" t="n">
+        <v>5550300</v>
+      </c>
+      <c r="H1277" t="n">
+        <v>9</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1277" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1277" t="n">
+        <v>2466800</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1284" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1286" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>160</v>
+      </c>
+      <c r="G1286" t="n">
+        <v>473600</v>
+      </c>
+      <c r="H1286" t="n">
+        <v>16</v>
+      </c>
+      <c r="I1286" t="n">
+        <v>139</v>
+      </c>
+      <c r="J1286" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1286" t="n">
+        <v>411440</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1287" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1288" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1290" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>228</v>
+      </c>
+      <c r="G1290" t="n">
+        <v>770640</v>
+      </c>
+      <c r="H1290" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>195</v>
+      </c>
+      <c r="J1290" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1290" t="n">
+        <v>659100</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1293" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1294" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>172</v>
+      </c>
+      <c r="G1294" t="n">
+        <v>1878240</v>
+      </c>
+      <c r="H1294" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>141</v>
+      </c>
+      <c r="J1294" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1294" t="n">
+        <v>1539720</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1295" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1296" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1297" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1298" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1299" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1300" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1301" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1302" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1303" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1304" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1305" t="n">
+        <v>5550300</v>
+      </c>
+      <c r="H1305" t="n">
+        <v>9</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1305" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1305" t="n">
+        <v>2466800</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1309" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1311" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1312" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1313" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1314" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>160</v>
+      </c>
+      <c r="G1314" t="n">
+        <v>473600</v>
+      </c>
+      <c r="H1314" t="n">
+        <v>16</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>139</v>
+      </c>
+      <c r="J1314" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1314" t="n">
+        <v>411440</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1315" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1316" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1317" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1318" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>228</v>
+      </c>
+      <c r="G1318" t="n">
+        <v>770640</v>
+      </c>
+      <c r="H1318" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>195</v>
+      </c>
+      <c r="J1318" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1318" t="n">
+        <v>659100</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1319" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1320" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1321" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1322" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>172</v>
+      </c>
+      <c r="G1322" t="n">
+        <v>1878240</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>141</v>
+      </c>
+      <c r="J1322" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1322" t="n">
+        <v>1539720</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1323" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1324" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1325" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1327" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1328" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1329" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
